--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S6/S6_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S6/S6_storagemod.xlsx
@@ -14,204 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>93.70619075726538</t>
-  </si>
-  <si>
-    <t>95.59140307628208</t>
-  </si>
-  <si>
-    <t>97.47661539529878</t>
-  </si>
-  <si>
-    <t>99.36182771431547</t>
-  </si>
-  <si>
-    <t>101.07565709523975</t>
-  </si>
-  <si>
-    <t>102.56097589204079</t>
-  </si>
-  <si>
-    <t>103.95489045519253</t>
-  </si>
-  <si>
-    <t>105.01746467136557</t>
-  </si>
-  <si>
-    <t>106.23272550511189</t>
-  </si>
-  <si>
-    <t>107.75959168084441</t>
-  </si>
-  <si>
-    <t>109.47342106176868</t>
-  </si>
-  <si>
-    <t>111.35863338078539</t>
-  </si>
-  <si>
-    <t>113.24384569980208</t>
-  </si>
-  <si>
-    <t>115.1290580188188</t>
-  </si>
-  <si>
-    <t>117.01427033783548</t>
-  </si>
-  <si>
-    <t>118.8423550108214</t>
-  </si>
-  <si>
-    <t>120.83610985729662</t>
-  </si>
-  <si>
-    <t>122.66990729488559</t>
-  </si>
-  <si>
-    <t>124.55511961390229</t>
-  </si>
-  <si>
-    <t>126.440331932919</t>
-  </si>
-  <si>
-    <t>128.3255442519357</t>
-  </si>
-  <si>
-    <t>130.21075657095238</t>
-  </si>
-  <si>
-    <t>132.0959688899691</t>
-  </si>
-  <si>
-    <t>133.91262803374883</t>
-  </si>
-  <si>
-    <t>135.8663935280025</t>
-  </si>
-  <si>
-    <t>137.7516058470192</t>
-  </si>
-  <si>
-    <t>139.63681816603588</t>
-  </si>
-  <si>
-    <t>141.47061560362488</t>
-  </si>
-  <si>
-    <t>143.4072428040693</t>
-  </si>
-  <si>
-    <t>145.292455123086</t>
-  </si>
-  <si>
-    <t>147.1776674421027</t>
-  </si>
-  <si>
-    <t>148.97718829207318</t>
-  </si>
-  <si>
-    <t>12477654.344181549</t>
-  </si>
-  <si>
-    <t>11859741.571517192</t>
-  </si>
-  <si>
-    <t>10914212.275322784</t>
-  </si>
-  <si>
-    <t>9551052.500415353</t>
-  </si>
-  <si>
-    <t>7436511.832734578</t>
-  </si>
-  <si>
-    <t>4774625.922561954</t>
-  </si>
-  <si>
-    <t>3318146.8218425075</t>
-  </si>
-  <si>
-    <t>2254030.156307598</t>
-  </si>
-  <si>
-    <t>1512869.7751299727</t>
-  </si>
-  <si>
-    <t>1074927.209762176</t>
-  </si>
-  <si>
-    <t>785521.0853734633</t>
-  </si>
-  <si>
-    <t>581492.6494450335</t>
-  </si>
-  <si>
-    <t>485454.3231832968</t>
-  </si>
-  <si>
-    <t>390933.63336327765</t>
-  </si>
-  <si>
-    <t>325001.00837728276</t>
-  </si>
-  <si>
-    <t>285289.2241821999</t>
-  </si>
-  <si>
-    <t>253307.72833598164</t>
-  </si>
-  <si>
-    <t>226352.90290645894</t>
-  </si>
-  <si>
-    <t>206546.89842942593</t>
-  </si>
-  <si>
-    <t>190374.76070919004</t>
-  </si>
-  <si>
-    <t>172894.74559741697</t>
-  </si>
-  <si>
-    <t>158878.47498578532</t>
-  </si>
-  <si>
-    <t>147915.55194673932</t>
-  </si>
-  <si>
-    <t>141566.32074236733</t>
-  </si>
-  <si>
-    <t>132608.20536586756</t>
-  </si>
-  <si>
-    <t>124078.98014131526</t>
-  </si>
-  <si>
-    <t>112603.9662989891</t>
-  </si>
-  <si>
-    <t>103751.73219326684</t>
-  </si>
-  <si>
-    <t>102809.68656868613</t>
-  </si>
-  <si>
-    <t>92117.65136380737</t>
-  </si>
-  <si>
-    <t>85215.44314486206</t>
-  </si>
-  <si>
-    <t>83477.68433968844</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -584,259 +392,259 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
+      <c r="A2">
+        <v>93.70619075726538</v>
+      </c>
+      <c r="B2">
+        <v>12477654.34418155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
+      <c r="A3">
+        <v>95.59140307628208</v>
+      </c>
+      <c r="B3">
+        <v>11859741.57151719</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+      <c r="A4">
+        <v>97.47661539529878</v>
+      </c>
+      <c r="B4">
+        <v>10914212.27532278</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
+      <c r="A5">
+        <v>99.36182771431547</v>
+      </c>
+      <c r="B5">
+        <v>9551052.500415353</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
+      <c r="A6">
+        <v>101.0756570952397</v>
+      </c>
+      <c r="B6">
+        <v>7436511.832734578</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
+      <c r="A7">
+        <v>102.5609758920408</v>
+      </c>
+      <c r="B7">
+        <v>4774625.922561954</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
+      <c r="A8">
+        <v>103.9548904551925</v>
+      </c>
+      <c r="B8">
+        <v>3318146.821842507</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
+      <c r="A9">
+        <v>105.0174646713656</v>
+      </c>
+      <c r="B9">
+        <v>2254030.156307598</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="A10">
+        <v>106.2327255051119</v>
+      </c>
+      <c r="B10">
+        <v>1512869.775129973</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
+      <c r="A11">
+        <v>107.7595916808444</v>
+      </c>
+      <c r="B11">
+        <v>1074927.209762176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
+      <c r="A12">
+        <v>109.4734210617687</v>
+      </c>
+      <c r="B12">
+        <v>785521.0853734633</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
+      <c r="A13">
+        <v>111.3586333807854</v>
+      </c>
+      <c r="B13">
+        <v>581492.6494450335</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
+      <c r="A14">
+        <v>113.2438456998021</v>
+      </c>
+      <c r="B14">
+        <v>485454.3231832968</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
+      <c r="A15">
+        <v>115.1290580188188</v>
+      </c>
+      <c r="B15">
+        <v>390933.6333632777</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
+      <c r="A16">
+        <v>117.0142703378355</v>
+      </c>
+      <c r="B16">
+        <v>325001.0083772828</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
+      <c r="A17">
+        <v>118.8423550108214</v>
+      </c>
+      <c r="B17">
+        <v>285289.2241821999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
+      <c r="A18">
+        <v>120.8361098572966</v>
+      </c>
+      <c r="B18">
+        <v>253307.7283359816</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
+      <c r="A19">
+        <v>122.6699072948856</v>
+      </c>
+      <c r="B19">
+        <v>226352.9029064589</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
+      <c r="A20">
+        <v>124.5551196139023</v>
+      </c>
+      <c r="B20">
+        <v>206546.8984294259</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
+      <c r="A21">
+        <v>126.440331932919</v>
+      </c>
+      <c r="B21">
+        <v>190374.76070919</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
+      <c r="A22">
+        <v>128.3255442519357</v>
+      </c>
+      <c r="B22">
+        <v>172894.745597417</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
+      <c r="A23">
+        <v>130.2107565709524</v>
+      </c>
+      <c r="B23">
+        <v>158878.4749857853</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
+      <c r="A24">
+        <v>132.0959688899691</v>
+      </c>
+      <c r="B24">
+        <v>147915.5519467393</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
+      <c r="A25">
+        <v>133.9126280337488</v>
+      </c>
+      <c r="B25">
+        <v>141566.3207423673</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
+      <c r="A26">
+        <v>135.8663935280025</v>
+      </c>
+      <c r="B26">
+        <v>132608.2053658676</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
+      <c r="A27">
+        <v>137.7516058470192</v>
+      </c>
+      <c r="B27">
+        <v>124078.9801413153</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
+      <c r="A28">
+        <v>139.6368181660359</v>
+      </c>
+      <c r="B28">
+        <v>112603.9662989891</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
+      <c r="A29">
+        <v>141.4706156036249</v>
+      </c>
+      <c r="B29">
+        <v>103751.7321932668</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
+      <c r="A30">
+        <v>143.4072428040693</v>
+      </c>
+      <c r="B30">
+        <v>102809.6865686861</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
+      <c r="A31">
+        <v>145.292455123086</v>
+      </c>
+      <c r="B31">
+        <v>92117.65136380737</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
+      <c r="A32">
+        <v>147.1776674421027</v>
+      </c>
+      <c r="B32">
+        <v>85215.44314486206</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
+      <c r="A33">
+        <v>148.9771882920732</v>
+      </c>
+      <c r="B33">
+        <v>83477.68433968844</v>
       </c>
     </row>
   </sheetData>
